--- a/data/health/indicator_2 total health expenditure perc of GDP.xlsx
+++ b/data/health/indicator_2 total health expenditure perc of GDP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B1" sqref="B1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1507,10 +1507,18 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
@@ -1592,7 +1600,7 @@
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1604,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>4.2646902300000002</v>
+        <v>10.403637829999999</v>
       </c>
       <c r="F13" s="7">
-        <v>5.2508598700000002</v>
+        <v>8.2990509400000008</v>
       </c>
       <c r="G13" s="12">
-        <v>6.9212445899999997</v>
+        <v>7.4162236100000003</v>
       </c>
       <c r="H13" s="12">
-        <v>6.9315945000000001</v>
+        <v>7.02937441</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1630,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <v>10.403637829999999</v>
+        <v>3.08398577</v>
       </c>
       <c r="F14" s="7">
-        <v>8.2990509400000008</v>
+        <v>3.9020610200000001</v>
       </c>
       <c r="G14" s="12">
-        <v>7.4162236100000003</v>
+        <v>4.5856941400000002</v>
       </c>
       <c r="H14" s="12">
-        <v>7.02937441</v>
+        <v>4.3940747299999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1656,21 +1664,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>3.08398577</v>
+        <v>5.1018100899999999</v>
       </c>
       <c r="F15" s="7">
-        <v>3.9020610200000001</v>
+        <v>5.9757712200000004</v>
       </c>
       <c r="G15" s="12">
-        <v>4.5856941400000002</v>
-      </c>
-      <c r="H15" s="12">
-        <v>4.3940747299999998</v>
-      </c>
+        <v>6.45766872</v>
+      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1682,19 +1688,21 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>5.1018100899999999</v>
+        <v>8.0881838899999998</v>
       </c>
       <c r="F16" s="7">
-        <v>5.9757712200000004</v>
+        <v>9.9683255200000005</v>
       </c>
       <c r="G16" s="12">
-        <v>6.45766872</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>11.978219190000001</v>
+      </c>
+      <c r="H16" s="12">
+        <v>11.92238798</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1706,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>8.0881838899999998</v>
+        <v>7.5337503100000003</v>
       </c>
       <c r="F17" s="7">
-        <v>9.9683255200000005</v>
+        <v>8.0322055500000005</v>
       </c>
       <c r="G17" s="12">
-        <v>11.978219190000001</v>
+        <v>9.9727322800000007</v>
       </c>
       <c r="H17" s="12">
-        <v>11.92238798</v>
+        <v>10.0962882</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1732,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>7.5337503100000003</v>
+        <v>3.7104459200000002</v>
       </c>
       <c r="F18" s="7">
-        <v>8.0322055500000005</v>
+        <v>2.8208717299999999</v>
       </c>
       <c r="G18" s="12">
-        <v>9.9727322800000007</v>
+        <v>2.1953775100000001</v>
       </c>
       <c r="H18" s="12">
-        <v>10.0962882</v>
+        <v>2.19593295</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1758,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>3.7104459200000002</v>
+        <v>3.2312158100000001</v>
       </c>
       <c r="F19" s="7">
-        <v>2.8208717299999999</v>
+        <v>3.2272069399999999</v>
       </c>
       <c r="G19" s="12">
-        <v>2.1953775100000001</v>
+        <v>3.6012209500000001</v>
       </c>
       <c r="H19" s="12">
-        <v>2.19593295</v>
+        <v>3.6133547099999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1784,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>3.2312158100000001</v>
+        <v>5.7345032500000004</v>
       </c>
       <c r="F20" s="7">
-        <v>3.2272069399999999</v>
+        <v>6.2039202299999996</v>
       </c>
       <c r="G20" s="12">
-        <v>3.6012209500000001</v>
+        <v>7.3504192499999998</v>
       </c>
       <c r="H20" s="12">
-        <v>3.6133547099999999</v>
+        <v>7.4610776300000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1810,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>5.7345032500000004</v>
+        <v>5.1326837200000002</v>
       </c>
       <c r="F21" s="7">
-        <v>6.2039202299999996</v>
+        <v>5.4622263200000001</v>
       </c>
       <c r="G21" s="12">
-        <v>7.3504192499999998</v>
+        <v>5.6408256899999998</v>
       </c>
       <c r="H21" s="12">
-        <v>7.4610776300000001</v>
+        <v>5.5783921300000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1836,21 +1844,21 @@
         <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>5.1326837200000002</v>
+        <v>5.7957147999999998</v>
       </c>
       <c r="F22" s="7">
-        <v>5.4622263200000001</v>
+        <v>5.1875849599999997</v>
       </c>
       <c r="G22" s="12">
-        <v>5.6408256899999998</v>
+        <v>5.5729953999999999</v>
       </c>
       <c r="H22" s="12">
-        <v>5.5783921300000001</v>
+        <v>5.0748263099999997</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1861,22 +1869,22 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="7">
-        <v>5.7957147999999998</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5.1875849599999997</v>
-      </c>
-      <c r="G23" s="12">
-        <v>5.5729953999999999</v>
-      </c>
-      <c r="H23" s="12">
-        <v>5.0748263099999997</v>
+      <c r="E23" s="67">
+        <v>2.8620183199999998</v>
+      </c>
+      <c r="F23" s="67">
+        <v>3.4010959500000002</v>
+      </c>
+      <c r="G23" s="64">
+        <v>4.1324707299999996</v>
+      </c>
+      <c r="H23" s="64">
+        <v>3.95961271</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1887,17 +1895,17 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="67">
-        <v>2.8620183199999998</v>
-      </c>
-      <c r="F24" s="67">
-        <v>3.4010959500000002</v>
-      </c>
-      <c r="G24" s="64">
-        <v>4.1324707299999996</v>
-      </c>
-      <c r="H24" s="64">
-        <v>3.95961271</v>
+      <c r="E24" s="7">
+        <v>4.2646902300000002</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5.2508598700000002</v>
+      </c>
+      <c r="G24" s="12">
+        <v>6.9212445899999997</v>
+      </c>
+      <c r="H24" s="12">
+        <v>6.9315945000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
